--- a/TEST_CASES/Test_Cases_template.xlsx
+++ b/TEST_CASES/Test_Cases_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTI.INFVA07202\Desktop\Group 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftPAC\TEST_CASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566E9C0-63AB-41E4-84BA-80369F70C10D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82072F72-E94A-433E-8E6E-4A50D31D70FB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{A031167F-79B9-4007-9C17-3D5EC9E4E483}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{A031167F-79B9-4007-9C17-3D5EC9E4E483}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>SoftPAC: Software for Primary Agricultural Society</t>
   </si>
@@ -73,13 +73,74 @@
   </si>
   <si>
     <t>Consideration for Automation</t>
+  </si>
+  <si>
+    <t>Test_Transaction_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction_Receipt_01
+</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Available Internet Connection</t>
+  </si>
+  <si>
+    <t>Application is Up and Running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Login Credentials </t>
+  </si>
+  <si>
+    <t>User wants to credit the customers account for the provided details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login with the valid credentials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover Over to the Transaction </t>
+  </si>
+  <si>
+    <t>Hover Over to the Transaction Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;hover&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;click&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;click&gt;
+</t>
+  </si>
+  <si>
+    <t>Click on Reciept/Payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;beta10&gt;  &lt;beta@123&gt;
+</t>
+  </si>
+  <si>
+    <t>Hover menu is displayed on the screen.</t>
+  </si>
+  <si>
+    <t>Expected menu is displayed</t>
+  </si>
+  <si>
+    <t>Dashboard should appear</t>
+  </si>
+  <si>
+    <t>Dashboard is displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +150,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -296,63 +365,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,263 +798,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFB05-1E98-45F1-9E05-E849B132826B}">
-  <dimension ref="C1:P32"/>
+  <dimension ref="C1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:P32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
+    <row r="5" spans="3:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="3:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="3:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="3:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="3:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="17"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10">
+        <v>8</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="38"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -932,324 +1120,372 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="18"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="22"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="18"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="22"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="18"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="18"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="18"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="30"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="22"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="H26:H32"/>
-    <mergeCell ref="P26:P32"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="P29:P35"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="P22:P28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="H15:H21"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="C3:P3"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="H5:H14"/>
+    <mergeCell ref="P5:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
